--- a/sourceData/收款单/收款单2.xlsx
+++ b/sourceData/收款单/收款单2.xlsx
@@ -11,14 +11,14 @@
     <sheet name="按销售日期统计" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>订单编号</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>w1268</t>
-  </si>
-  <si>
-    <t>w1269</t>
   </si>
   <si>
     <t>w1270</t>
@@ -1366,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2222222222222" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1526,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1534,19 +1531,11 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B5">
+  <autoFilter ref="A1:B20">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,31 +1556,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -1599,13 +1588,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1632,13 +1621,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1665,13 +1654,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1698,13 +1687,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1731,13 +1720,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1764,13 +1753,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1797,13 +1786,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1830,13 +1819,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1863,13 +1852,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1896,13 +1885,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1929,13 +1918,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1962,13 +1951,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1995,13 +1984,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2028,13 +2017,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2061,13 +2050,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2094,13 +2083,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2127,13 +2116,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2160,13 +2149,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2193,13 +2182,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2226,13 +2215,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2259,13 +2248,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2292,13 +2281,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2325,13 +2314,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2358,13 +2347,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -2391,13 +2380,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -2424,13 +2413,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2457,13 +2446,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2490,13 +2479,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2523,13 +2512,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2556,13 +2545,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2589,13 +2578,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2622,13 +2611,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2655,13 +2644,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2688,13 +2677,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2721,13 +2710,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2754,13 +2743,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2787,13 +2776,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2820,13 +2809,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2853,13 +2842,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -2886,13 +2875,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -2919,13 +2908,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -2952,13 +2941,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2985,13 +2974,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3018,13 +3007,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3051,13 +3040,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3084,13 +3073,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3117,13 +3106,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -3150,13 +3139,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3183,13 +3172,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3214,13 +3203,13 @@
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="P50" s="2">
         <v>41</v>
@@ -3228,13 +3217,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3259,13 +3248,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="P51" s="2">
         <v>130</v>
@@ -3273,7 +3262,7 @@
     </row>
     <row r="52" spans="9:16">
       <c r="I52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J52">
         <v>-171</v>
@@ -3285,7 +3274,7 @@
     </row>
     <row r="53" spans="9:10">
       <c r="I53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J53" s="3">
         <f>SUM(J2:J52)</f>
